--- a/data/output/Pedido_Semana_07_15022026_fitos.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_fitos.xlsx
@@ -820,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4" s="2" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10" s="8" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14" s="8" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>8</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S15" s="2" t="n">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" s="2" t="n">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="2" t="n">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="8" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>3501010006</t>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C38" s="5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">

--- a/data/output/Pedido_Semana_07_15022026_fitos.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_fitos.xlsx
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>54.9</v>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>8.5</v>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>57.75</v>
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>19.98</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="6" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>9.199999999999999</v>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>10.08</v>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>9.050000000000001</v>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>43.5</v>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>11.25</v>
@@ -1691,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>11.85</v>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>14.55</v>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="6" t="n">
         <v>38.1</v>
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>39.35</v>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>48.45</v>
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="6" t="n">
         <v>13.68</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>31.15</v>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>52.05</v>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>4.65</v>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>10.8</v>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>7.5</v>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>4.47</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>15</v>
@@ -2744,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>27.4</v>
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>15.68</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>58.45</v>
@@ -2987,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>33.3</v>
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>22.38</v>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>9.880000000000001</v>
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>34.35</v>
@@ -3311,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="6" t="n">
         <v>7.25</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
